--- a/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,9 +14,7 @@
     <sheet name="RefBibliographic" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="RefProvenance" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Interfaces" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Upscale_Crop_Farm" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="ProcessorScalings" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BACKUP ProcessorScalings" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="ProcessorScalings" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="204">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -156,9 +154,6 @@
     <t xml:space="preserve">Attributes</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
@@ -591,9 +586,6 @@
     <t xml:space="preserve">Calculated with ad hoc software for Poniente Almeriense 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">MARG2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">UTAs average of important irrigation communities in Alto and Bajo Almanzora (0.2 - 0.4)</t>
   </si>
   <si>
@@ -625,9 +617,6 @@
   </si>
   <si>
     <t xml:space="preserve">Defined for Agrarian units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crop / Farm</t>
   </si>
   <si>
     <t xml:space="preserve">InvokingProcessor</t>
@@ -660,7 +649,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -705,105 +694,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -832,7 +737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -873,63 +778,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,66 +795,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFE7E6E6"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1158,10 +951,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1228,351 +1021,348 @@
         <v>41</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="O6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1384,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,28 +1399,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>41</v>
@@ -1638,236 +1428,236 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1918,102 +1708,102 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="X1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="AA2" s="0" t="n">
         <v>2010</v>
@@ -2021,47 +1811,47 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="AA5" s="0" t="n">
         <v>2013</v>
@@ -2069,16 +1859,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="AA6" s="0" t="n">
         <v>2008</v>
@@ -2086,16 +1876,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>2015</v>
@@ -2130,41 +1920,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +1973,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2199,19 +1989,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="1.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="1.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,37 +2009,37 @@
         <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>167</v>
@@ -2274,24 +2064,21 @@
       </c>
       <c r="T1" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -2306,1410 +2093,1410 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8" t="n">
+      <c r="J3" s="8" t="n">
         <v>338.297333333333</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8" t="n">
+      <c r="J4" s="8" t="n">
         <v>2289</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="K4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="0" t="n">
+      <c r="P4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="0" t="s">
-        <v>179</v>
-      </c>
+      <c r="R4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="n">
+      <c r="J5" s="8" t="n">
         <v>36.99</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R5" s="0" t="n">
+      <c r="P5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="0" t="s">
-        <v>180</v>
-      </c>
+      <c r="R5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="n">
+      <c r="J6" s="8" t="n">
         <v>369.9</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="0" t="s">
+      <c r="P6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8" t="n">
+      <c r="J7" s="8" t="n">
         <v>128.436666666667</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="0" t="s">
+      <c r="P7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R7" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9" t="n">
+      <c r="J8" s="9" t="n">
         <f aca="false">4*700</f>
         <v>2800</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>98</v>
-      </c>
+      <c r="K8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R8" s="0" t="n">
+      <c r="P8" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="0" t="s">
-        <v>181</v>
-      </c>
+      <c r="R8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8" t="n">
+      <c r="J9" s="8" t="n">
         <v>72768</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R9" s="0" t="n">
+      <c r="P9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q9" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="0" t="s">
-        <v>183</v>
-      </c>
+      <c r="R9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="n">
+        <v>3947</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8" t="n">
-        <v>3947</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R10" s="0" t="n">
+      <c r="P10" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="0" t="s">
-        <v>186</v>
-      </c>
+      <c r="R10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="0"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8" t="n">
+      <c r="J12" s="8" t="n">
         <v>312.969411764706</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="0" t="s">
+      <c r="P12" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R12" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8" t="n">
+      <c r="J13" s="8" t="n">
         <v>441</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="K13" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R13" s="0" t="n">
+      <c r="P13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="0" t="s">
-        <v>188</v>
-      </c>
+      <c r="R13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8" t="n">
+      <c r="J14" s="8" t="n">
         <v>102.324</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R14" s="0" t="n">
+      <c r="P14" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="0" t="s">
-        <v>189</v>
-      </c>
+      <c r="R14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8" t="n">
+      <c r="J15" s="8" t="n">
         <v>341.08</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="0" t="s">
+      <c r="P15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R15" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T15" s="7"/>
-      <c r="U15" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8" t="n">
+      <c r="J16" s="8" t="n">
         <v>61.3788235294118</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="0" t="s">
+      <c r="P16" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R16" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="9" t="n">
+      <c r="J17" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>98</v>
-      </c>
+      <c r="K17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="Q17" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="0"/>
+        <v>129</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="9" t="n">
+      <c r="J18" s="9" t="n">
         <v>25282</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R18" s="0" t="n">
+      <c r="P18" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S18" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="0" t="s">
-        <v>183</v>
-      </c>
+      <c r="R18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9" t="n">
+        <v>3213</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="9" t="n">
-        <v>3213</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="Q19" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="0" t="s">
-        <v>191</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="0"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8" t="n">
+      <c r="J21" s="8" t="n">
         <v>118.733333333333</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="0" t="s">
+      <c r="P21" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R21" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="9" t="n">
+      <c r="J22" s="9" t="n">
         <v>643.708116157856</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="K22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R22" s="0" t="n">
+      <c r="P22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q22" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="0" t="s">
-        <v>192</v>
-      </c>
+      <c r="R22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8" t="n">
+      <c r="J23" s="8" t="n">
         <v>8.75000000000001</v>
       </c>
-      <c r="L23" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R23" s="0" t="n">
+      <c r="P23" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="0" t="s">
-        <v>189</v>
-      </c>
+      <c r="R23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8" t="n">
+      <c r="J24" s="8" t="n">
         <v>29.1666666666667</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="0" t="s">
+      <c r="P24" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R24" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8" t="n">
+      <c r="J25" s="8" t="n">
         <v>26.65</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="0" t="s">
+      <c r="P25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="R25" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="9" t="n">
+      <c r="J26" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>98</v>
-      </c>
+      <c r="K26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R26" s="0"/>
-      <c r="S26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="0"/>
+      <c r="P26" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="0"/>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="9" t="n">
+      <c r="J27" s="9" t="n">
         <v>9100</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R27" s="0" t="n">
+      <c r="P27" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="0" t="s">
-        <v>183</v>
-      </c>
+      <c r="R27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9" t="n">
+        <v>641.288160833954</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="9" t="n">
-        <v>641.288160833954</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R28" s="0" t="n">
+      <c r="P28" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q28" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="0" t="s">
-        <v>193</v>
-      </c>
+      <c r="R28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="0"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="0"/>
       <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8" t="n">
+      <c r="J30" s="8" t="n">
         <v>268.658823529412</v>
       </c>
-      <c r="L30" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R30" s="0" t="n">
+      <c r="P30" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q30" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="0" t="s">
-        <v>194</v>
-      </c>
+      <c r="R30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8" t="n">
+      <c r="J31" s="8" t="n">
         <v>1932</v>
       </c>
-      <c r="L31" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="K31" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R31" s="0" t="n">
+      <c r="P31" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T31" s="7"/>
-      <c r="U31" s="0" t="s">
-        <v>195</v>
-      </c>
+      <c r="R31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8" t="n">
+      <c r="J32" s="8" t="n">
         <v>36.99</v>
       </c>
-      <c r="L32" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R32" s="0" t="n">
+      <c r="P32" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q32" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T32" s="7"/>
-      <c r="U32" s="0" t="s">
-        <v>159</v>
-      </c>
+      <c r="R32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8" t="n">
+      <c r="J33" s="8" t="n">
         <v>271.858823529412</v>
       </c>
-      <c r="L33" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R33" s="0" t="n">
+      <c r="P33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q33" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="0" t="s">
-        <v>194</v>
-      </c>
+      <c r="R33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8" t="n">
+      <c r="J34" s="8" t="n">
         <v>135.558823529412</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R34" s="0" t="n">
+      <c r="P34" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q34" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="0" t="s">
-        <v>194</v>
-      </c>
+      <c r="R34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S34" s="7"/>
+      <c r="T34" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="9" t="n">
+      <c r="J35" s="9" t="n">
         <f aca="false">4*700</f>
         <v>2800</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>98</v>
-      </c>
+      <c r="K35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R35" s="0" t="n">
+      <c r="P35" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q35" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="0" t="s">
-        <v>196</v>
-      </c>
+      <c r="R35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8" t="n">
+      <c r="J36" s="8" t="n">
         <v>83575</v>
       </c>
-      <c r="L36" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R36" s="0" t="n">
+      <c r="P36" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q36" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T36" s="7"/>
-      <c r="U36" s="0" t="s">
-        <v>197</v>
-      </c>
+      <c r="R36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S36" s="7"/>
+      <c r="T36" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R37" s="0" t="n">
+      <c r="P37" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q37" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="T37" s="7"/>
-      <c r="U37" s="0" t="s">
-        <v>196</v>
-      </c>
+      <c r="R37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S37" s="7"/>
+      <c r="T37" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
@@ -3721,408 +3508,401 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="0"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="P38" s="0"/>
       <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="0"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="P39" s="0"/>
       <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
+      <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="L40" s="0" t="s">
-        <v>142</v>
-      </c>
+      <c r="K40" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R40" s="0" t="n">
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="S40" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="T40" s="7"/>
-      <c r="U40" s="0" t="s">
-        <v>198</v>
-      </c>
+      <c r="R40" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="S40" s="7"/>
+      <c r="T40" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="L41" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="K41" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R41" s="0" t="n">
+      <c r="P41" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q41" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S41" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="T41" s="7"/>
-      <c r="U41" s="0"/>
+      <c r="R41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="0"/>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="0"/>
       <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
+      <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="0"/>
       <c r="Q42" s="0"/>
-      <c r="R42" s="0"/>
+      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="0" t="n">
+      <c r="J43" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="L43" s="0" t="s">
-        <v>142</v>
-      </c>
+      <c r="K43" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R43" s="0" t="n">
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="S43" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="0" t="s">
-        <v>198</v>
-      </c>
+      <c r="R43" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="P44" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R44" s="0" t="n">
+      <c r="Q44" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S44" s="0" t="s">
-        <v>140</v>
+      <c r="R44" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="J46" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="L46" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q46" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R46" s="0" t="n">
+      <c r="K46" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q46" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="S46" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>198</v>
+      <c r="R46" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="P47" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="K47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R47" s="0" t="n">
+      <c r="Q47" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S47" s="0" t="s">
-        <v>140</v>
+      <c r="R47" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="K49" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>213</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>28609</v>
+      </c>
+      <c r="K50" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>28609</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>12073</v>
+      </c>
+      <c r="K51" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>12073</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>10160</v>
+      </c>
+      <c r="K52" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>10160</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>341</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="K54" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>384</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4141,156 +3921,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.21"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="15" t="n">
-        <v>0.151660472365424</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>0.119641076769691</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19" t="n">
-        <v>0.191674975074776</v>
-      </c>
-      <c r="E9" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4306,694 +3940,381 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>0.19</v>
+        <v>102</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="24" t="n">
-        <v>0.03</v>
+        <v>102</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>0.06</v>
+        <v>102</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="19" t="n">
-        <v>0.85</v>
+        <v>102</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="19" t="n">
-        <v>0.77</v>
+        <v>102</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="19" t="n">
-        <v>0.05</v>
+        <v>102</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>0.87</v>
+        <v>102</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>0.94</v>
+        <v>102</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="24" t="n">
-        <v>0.04</v>
+        <v>102</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="24" t="n">
-        <v>0.92</v>
+        <v>102</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="24" t="n">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="24" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="19" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="19" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F14" s="10" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F15" s="10" t="n">
         <v>0.94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F16" s="10" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F17" s="10" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F18" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="24" t="n">
+        <v>102</v>
+      </c>
+      <c r="F19" s="10" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="204">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -556,6 +556,9 @@
     <t xml:space="preserve">Input</t>
   </si>
   <si>
+    <t xml:space="preserve">Standard=45, Quality=”High”</t>
+  </si>
+  <si>
     <t xml:space="preserve">LU ha</t>
   </si>
   <si>
@@ -590,9 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">30% of OF Nreq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-2005</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated from Blue Water Footprint Benchmark according to 2013 yield</t>
@@ -737,7 +737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,6 +775,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -953,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,7 +966,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.69"/>
@@ -1384,7 +1388,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1975,8 +1979,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1985,21 +1989,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="1.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="0" width="8.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -2075,13 +2079,15 @@
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" s="7" t="s">
         <v>175</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -2122,7 +2128,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>2013</v>
@@ -2132,7 +2138,7 @@
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
@@ -2163,7 +2169,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>2013</v>
@@ -2173,7 +2179,7 @@
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AMJ4" s="0"/>
     </row>
@@ -2204,7 +2210,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>2013</v>
@@ -2214,7 +2220,7 @@
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
@@ -2245,7 +2251,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>2013</v>
@@ -2255,7 +2261,7 @@
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ6" s="0"/>
     </row>
@@ -2286,7 +2292,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>2013</v>
@@ -2296,7 +2302,7 @@
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
@@ -2328,7 +2334,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>2010</v>
@@ -2338,7 +2344,7 @@
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AMJ8" s="0"/>
     </row>
@@ -2354,7 +2360,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2369,7 +2375,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>2013</v>
@@ -2379,7 +2385,7 @@
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AMJ9" s="0"/>
     </row>
@@ -2398,21 +2404,21 @@
         <v>175</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8" t="n">
         <v>3947</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>2010</v>
@@ -2422,7 +2428,7 @@
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AMJ10" s="0"/>
     </row>
@@ -2482,7 +2488,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>2013</v>
@@ -2492,7 +2498,7 @@
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ12" s="0"/>
     </row>
@@ -2523,7 +2529,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>2008</v>
@@ -2533,7 +2539,7 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AMJ13" s="0"/>
     </row>
@@ -2564,7 +2570,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>2013</v>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AMJ14" s="0"/>
     </row>
@@ -2605,7 +2611,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>2013</v>
@@ -2615,7 +2621,7 @@
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ15" s="0"/>
     </row>
@@ -2646,7 +2652,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>2013</v>
@@ -2656,7 +2662,7 @@
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ16" s="0"/>
     </row>
@@ -2687,7 +2693,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>129</v>
@@ -2711,7 +2717,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2726,7 +2732,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>2013</v>
@@ -2736,7 +2742,7 @@
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AMJ18" s="0"/>
     </row>
@@ -2755,24 +2761,24 @@
         <v>175</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="9" t="n">
         <v>3213</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>2013</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>159</v>
@@ -2839,7 +2845,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>2013</v>
@@ -2849,7 +2855,7 @@
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ21" s="0"/>
     </row>
@@ -2880,7 +2886,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>2013</v>
@@ -2921,7 +2927,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>2013</v>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AMJ23" s="0"/>
     </row>
@@ -2962,7 +2968,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>2013</v>
@@ -2972,7 +2978,7 @@
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ24" s="0"/>
     </row>
@@ -3003,7 +3009,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>2013</v>
@@ -3013,7 +3019,7 @@
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AMJ25" s="0"/>
     </row>
@@ -3044,9 +3050,11 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="0"/>
+        <v>177</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="R26" s="7" t="s">
         <v>156</v>
       </c>
@@ -3066,7 +3074,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3081,7 +3089,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>2013</v>
@@ -3091,7 +3099,7 @@
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AMJ27" s="0"/>
     </row>
@@ -3110,21 +3118,21 @@
         <v>175</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="9" t="n">
         <v>641.288160833954</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>2010</v>
@@ -3194,7 +3202,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>2013</v>
@@ -3235,7 +3243,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>2013</v>
@@ -3276,7 +3284,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="0" t="n">
         <v>2013</v>
@@ -3317,7 +3325,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>2013</v>
@@ -3358,7 +3366,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>2013</v>
@@ -3400,7 +3408,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>2010</v>
@@ -3426,7 +3434,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3441,7 +3449,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>2013</v>
@@ -3470,21 +3478,21 @@
         <v>175</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>2010</v>
@@ -3616,7 +3624,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>2010</v>
@@ -3713,7 +3721,7 @@
         <v>87</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>2010</v>
@@ -3776,7 +3784,7 @@
         <v>87</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47" s="0" t="n">
         <v>2010</v>
@@ -3796,7 +3804,7 @@
         <v>175</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>213</v>
@@ -3804,6 +3812,9 @@
       <c r="K49" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="Q49" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
@@ -3816,7 +3827,7 @@
         <v>175</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>28609</v>
@@ -3824,6 +3835,9 @@
       <c r="K50" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="Q50" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
@@ -3836,7 +3850,7 @@
         <v>175</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>12073</v>
@@ -3844,6 +3858,9 @@
       <c r="K51" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="Q51" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
@@ -3856,7 +3873,7 @@
         <v>175</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>10160</v>
@@ -3864,6 +3881,9 @@
       <c r="K52" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="Q52" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
@@ -3876,7 +3896,7 @@
         <v>175</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>341</v>
@@ -3884,6 +3904,9 @@
       <c r="K53" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="Q53" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
@@ -3896,13 +3919,16 @@
         <v>175</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>384</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>103</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3924,7 +3950,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4074,7 +4100,7 @@
       <c r="E7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4094,7 +4120,7 @@
       <c r="E8" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4114,7 +4140,7 @@
       <c r="E9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4134,7 +4160,7 @@
       <c r="E10" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4154,7 +4180,7 @@
       <c r="E11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="12" t="n">
         <v>0.85</v>
       </c>
     </row>
@@ -4174,7 +4200,7 @@
       <c r="E12" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="12" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -4194,7 +4220,7 @@
       <c r="E13" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4214,7 +4240,7 @@
       <c r="E14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -4234,7 +4260,7 @@
       <c r="E15" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -4254,7 +4280,7 @@
       <c r="E16" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4274,7 +4300,7 @@
       <c r="E17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -4294,7 +4320,7 @@
       <c r="E18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,7 +4340,7 @@
       <c r="E19" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="204">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -737,7 +737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,10 +775,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,7 +953,7 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1979,8 +1975,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2002,7 +1998,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="0" width="8.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
@@ -3052,7 +3048,7 @@
       <c r="P26" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="R26" s="7" t="s">
@@ -3577,9 +3573,7 @@
       <c r="J40" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>141</v>
-      </c>
+      <c r="K40" s="0"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -3684,9 +3678,7 @@
       <c r="J43" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>141</v>
-      </c>
+      <c r="K43" s="0"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3753,9 +3745,6 @@
       </c>
       <c r="J46" s="0" t="n">
         <v>0.6</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>2015</v>
@@ -4100,7 +4089,7 @@
       <c r="E7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="10" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4120,7 +4109,7 @@
       <c r="E8" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="10" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4140,7 +4129,7 @@
       <c r="E9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4160,7 +4149,7 @@
       <c r="E10" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4180,7 +4169,7 @@
       <c r="E11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.85</v>
       </c>
     </row>
@@ -4200,7 +4189,7 @@
       <c r="E12" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -4220,7 +4209,7 @@
       <c r="E13" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4240,7 +4229,7 @@
       <c r="E14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="10" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -4260,7 +4249,7 @@
       <c r="E15" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="10" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -4280,7 +4269,7 @@
       <c r="E16" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4300,7 +4289,7 @@
       <c r="E17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="10" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -4320,7 +4309,7 @@
       <c r="E18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,7 +4329,7 @@
       <c r="E19" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="10" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="204">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -737,7 +737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -778,10 +778,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -792,12 +788,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -944,8 +940,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -957,7 +953,7 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1374,8 +1370,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1669,8 +1665,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1900,8 +1896,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1966,8 +1962,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1979,8 +1975,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2002,7 +1998,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="0" width="8.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
@@ -3052,7 +3048,7 @@
       <c r="P26" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="R26" s="7" t="s">
@@ -3577,9 +3573,7 @@
       <c r="J40" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>141</v>
-      </c>
+      <c r="K40" s="0"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -3684,9 +3678,7 @@
       <c r="J43" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>141</v>
-      </c>
+      <c r="K43" s="0"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3754,9 +3746,6 @@
       <c r="J46" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="K46" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="Q46" s="0" t="n">
         <v>2015</v>
       </c>
@@ -3936,8 +3925,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4100,7 +4089,7 @@
       <c r="E7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="10" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4120,7 +4109,7 @@
       <c r="E8" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="10" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4140,7 +4129,7 @@
       <c r="E9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4160,7 +4149,7 @@
       <c r="E10" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4180,7 +4169,7 @@
       <c r="E11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.85</v>
       </c>
     </row>
@@ -4200,7 +4189,7 @@
       <c r="E12" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -4220,7 +4209,7 @@
       <c r="E13" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4240,7 +4229,7 @@
       <c r="E14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="10" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -4260,7 +4249,7 @@
       <c r="E15" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="10" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -4280,7 +4269,7 @@
       <c r="E16" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4300,7 +4289,7 @@
       <c r="E17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="10" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -4320,7 +4309,7 @@
       <c r="E18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,7 +4329,7 @@
       <c r="E19" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4349,8 +4338,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria_NEW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="201">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -140,15 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">InstanceOrArchetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyInterfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloneProcessor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias</t>
   </si>
   <si>
     <t xml:space="preserve">Attributes</t>
@@ -788,12 +779,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -940,8 +931,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -951,10 +942,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -967,11 +958,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="32.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,357 +1001,348 @@
         <v>38</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>53</v>
+      <c r="L3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>56</v>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>59</v>
+      <c r="L5" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1370,8 +1350,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1399,265 +1379,265 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1665,8 +1645,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1708,102 +1688,102 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="X1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="AA2" s="0" t="n">
         <v>2010</v>
@@ -1811,47 +1791,47 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="W5" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>146</v>
       </c>
       <c r="AA5" s="0" t="n">
         <v>2013</v>
@@ -1859,16 +1839,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="AA6" s="0" t="n">
         <v>2008</v>
@@ -1876,16 +1856,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>2015</v>
@@ -1896,8 +1876,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1920,41 +1900,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1962,8 +1942,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1975,115 +1955,111 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="19" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="F2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -2094,1830 +2070,1830 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8" t="n">
+      <c r="I3" s="8" t="n">
         <v>338.297333333333</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="0" t="n">
+      <c r="O3" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="8" t="n">
         <v>2289</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>92</v>
-      </c>
+      <c r="J4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="0" t="n">
+      <c r="O4" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="0" t="s">
-        <v>179</v>
-      </c>
+      <c r="Q4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="8" t="n">
         <v>36.99</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="0" t="s">
+      <c r="O5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="0" t="s">
-        <v>180</v>
-      </c>
+      <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="n">
+      <c r="I6" s="8" t="n">
         <v>369.9</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+      <c r="O6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="8" t="n">
         <v>128.436666666667</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="0" t="n">
+      <c r="O7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9" t="n">
+      <c r="I8" s="9" t="n">
         <f aca="false">4*700</f>
         <v>2800</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="J8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" s="0" t="n">
+      <c r="O8" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="0" t="s">
-        <v>181</v>
-      </c>
+      <c r="Q8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="F9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8" t="n">
+      <c r="I9" s="8" t="n">
         <v>72768</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="0" t="n">
+      <c r="O9" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="0" t="s">
-        <v>183</v>
-      </c>
+      <c r="Q9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="n">
         <v>3947</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="J10" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" s="0" t="n">
+      <c r="O10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="0" t="s">
-        <v>186</v>
-      </c>
+      <c r="Q10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="0"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="0"/>
       <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8" t="n">
+      <c r="I12" s="8" t="n">
         <v>312.969411764706</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q12" s="0" t="n">
+      <c r="O12" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P12" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8" t="n">
+      <c r="I13" s="8" t="n">
         <v>441</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>92</v>
-      </c>
+      <c r="J13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="0" t="n">
+      <c r="O13" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="0" t="s">
-        <v>187</v>
-      </c>
+      <c r="Q13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8" t="n">
+      <c r="I14" s="8" t="n">
         <v>102.324</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q14" s="0" t="n">
+      <c r="O14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="0" t="s">
-        <v>188</v>
-      </c>
+      <c r="Q14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8" t="n">
+      <c r="I15" s="8" t="n">
         <v>341.08</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q15" s="0" t="n">
+      <c r="O15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P15" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8" t="n">
+      <c r="I16" s="8" t="n">
         <v>61.3788235294118</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="0" t="n">
+      <c r="O16" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9" t="n">
+      <c r="I17" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="J17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="0" t="s">
+        <v>174</v>
+      </c>
       <c r="P17" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="0"/>
+        <v>126</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="0"/>
+      <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="F18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9" t="n">
+      <c r="I18" s="9" t="n">
         <v>25282</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" s="0" t="n">
+      <c r="O18" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="0" t="s">
-        <v>183</v>
-      </c>
+      <c r="Q18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9" t="n">
+        <v>181</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9" t="n">
         <v>3213</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="J19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" s="0" t="n">
+      <c r="O19" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="0" t="s">
-        <v>189</v>
-      </c>
+      <c r="Q19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="0"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="0"/>
       <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8" t="n">
+      <c r="I21" s="8" t="n">
         <v>118.733333333333</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q21" s="0" t="n">
+      <c r="O21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="n">
+      <c r="I22" s="9" t="n">
         <v>643.708116157856</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>92</v>
-      </c>
+      <c r="J22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q22" s="0" t="n">
+      <c r="O22" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="0" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8" t="n">
+      <c r="I23" s="8" t="n">
         <v>8.75000000000001</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q23" s="0" t="n">
+      <c r="O23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="0" t="s">
-        <v>188</v>
-      </c>
+      <c r="Q23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8" t="n">
+      <c r="I24" s="8" t="n">
         <v>29.1666666666667</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="0" t="n">
+      <c r="O24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8" t="n">
+      <c r="I25" s="8" t="n">
         <v>26.65</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="0" t="n">
+      <c r="O25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="7"/>
+      <c r="S25" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9" t="n">
+      <c r="I26" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="J26" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="0"/>
+      <c r="O26" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="0"/>
+      <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="F27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9" t="n">
+      <c r="I27" s="9" t="n">
         <v>9100</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q27" s="0" t="n">
+      <c r="O27" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="0" t="s">
-        <v>183</v>
-      </c>
+      <c r="Q27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B28" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="9" t="n">
+        <v>181</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="9" t="n">
         <v>641.288160833954</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="J28" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="0" t="n">
+      <c r="O28" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="0" t="s">
-        <v>191</v>
-      </c>
+      <c r="Q28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="0"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="0"/>
       <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8" t="n">
+      <c r="I30" s="8" t="n">
         <v>268.658823529412</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q30" s="0" t="n">
+      <c r="O30" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="0" t="s">
-        <v>192</v>
-      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B31" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8" t="n">
+      <c r="I31" s="8" t="n">
         <v>1932</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>92</v>
-      </c>
+      <c r="J31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q31" s="0" t="n">
+      <c r="O31" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="0" t="s">
-        <v>193</v>
-      </c>
+      <c r="Q31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B32" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8" t="n">
+      <c r="I32" s="8" t="n">
         <v>36.99</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J32" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q32" s="0" t="n">
+      <c r="O32" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="0" t="s">
-        <v>158</v>
-      </c>
+      <c r="Q32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8" t="n">
+      <c r="I33" s="8" t="n">
         <v>271.858823529412</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J33" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q33" s="0" t="n">
+      <c r="O33" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P33" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="0" t="s">
-        <v>192</v>
-      </c>
+      <c r="Q33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B34" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8" t="n">
+      <c r="I34" s="8" t="n">
         <v>135.558823529412</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q34" s="0" t="n">
+      <c r="O34" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="0" t="s">
-        <v>192</v>
-      </c>
+      <c r="Q34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="9" t="n">
+      <c r="I35" s="9" t="n">
         <f aca="false">4*700</f>
         <v>2800</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="J35" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q35" s="0" t="n">
+      <c r="O35" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="0" t="s">
-        <v>194</v>
-      </c>
+      <c r="Q35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="F36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8" t="n">
+      <c r="I36" s="8" t="n">
         <v>83575</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q36" s="0" t="n">
+      <c r="O36" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="R36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="0" t="s">
-        <v>195</v>
-      </c>
+      <c r="Q36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G37" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8" t="n">
         <v>5000</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>185</v>
-      </c>
+      <c r="J37" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q37" s="0" t="n">
+      <c r="O37" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="0" t="s">
-        <v>194</v>
-      </c>
+      <c r="Q37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="0"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="O38" s="0"/>
       <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
+      <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F39" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="0"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="O39" s="0"/>
       <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="K40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="0"/>
-      <c r="Q40" s="0" t="n">
+      <c r="O40" s="0"/>
+      <c r="P40" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="R40" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="0" t="s">
-        <v>196</v>
-      </c>
+      <c r="Q40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F41" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="J41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q41" s="0" t="n">
+      <c r="O41" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P41" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R41" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="0"/>
+      <c r="Q41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="0"/>
+      <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="B42" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="0"/>
       <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="O42" s="0"/>
       <c r="P42" s="0"/>
-      <c r="Q42" s="0"/>
+      <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="B43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="0" t="n">
+      <c r="I43" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="K43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0" t="n">
+      <c r="O43" s="0"/>
+      <c r="P43" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="R43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="S43" s="7"/>
-      <c r="T43" s="0" t="s">
-        <v>196</v>
-      </c>
+      <c r="Q43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="R43" s="7"/>
+      <c r="S43" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="0" t="n">
+      <c r="B44" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="K44" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q44" s="0" t="n">
+      <c r="J44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P44" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R44" s="0" t="s">
-        <v>139</v>
+      <c r="Q44" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>175</v>
+      <c r="B45" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="C46" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J47" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K47" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P47" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q47" s="0" t="n">
+      <c r="J47" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P47" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="R47" s="0" t="s">
-        <v>139</v>
+      <c r="Q47" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>213</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="F50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>28609</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>12073</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>10160</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>28609</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="F53" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>12073</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>10160</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q52" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>341</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q53" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>75</v>
+      <c r="F54" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J54" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>384</v>
       </c>
-      <c r="K54" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q54" s="0" t="s">
-        <v>129</v>
+      <c r="J54" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3925,8 +3901,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3938,8 +3914,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3954,40 +3930,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.15</v>
@@ -3995,19 +3971,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0.12</v>
@@ -4015,19 +3991,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.19</v>
@@ -4035,19 +4011,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.02</v>
@@ -4055,19 +4031,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.04</v>
@@ -4075,19 +4051,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>0.15</v>
@@ -4095,19 +4071,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>0.19</v>
@@ -4115,19 +4091,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>0.03</v>
@@ -4135,19 +4111,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>0.06</v>
@@ -4155,19 +4131,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="11" t="n">
         <v>0.85</v>
@@ -4175,19 +4151,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F12" s="11" t="n">
         <v>0.77</v>
@@ -4195,19 +4171,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F13" s="11" t="n">
         <v>0.05</v>
@@ -4215,19 +4191,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>0.87</v>
@@ -4235,19 +4211,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>0.94</v>
@@ -4255,19 +4231,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>0.04</v>
@@ -4275,19 +4251,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>0.92</v>
@@ -4295,19 +4271,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>1</v>
@@ -4315,19 +4291,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>0.13</v>
@@ -4338,8 +4314,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>